--- a/技術関係/vue.xlsx
+++ b/技術関係/vue.xlsx
@@ -4,24 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="12870"/>
+    <workbookView windowHeight="17850" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Vue.js devtools" sheetId="3" r:id="rId1"/>
     <sheet name="RouterView" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="コンポーネント呼び出し" sheetId="2" r:id="rId3"/>
+    <sheet name="pinia" sheetId="4" r:id="rId4"/>
+    <sheet name="Serviceクラス使用方法" sheetId="5" r:id="rId5"/>
+    <sheet name="templateからscriptのメソッドへ値を渡す" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3">
   <si>
     <t>url</t>
   </si>
   <si>
     <t>https://chromewebstore.google.com/detail/vuejs-devtools/nhdogjmejiglipccpnnnanhbledajbpd?hl=ja</t>
+  </si>
+  <si>
+    <t>設定</t>
   </si>
 </sst>
 </file>
@@ -29,12 +35,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,8 +56,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -64,24 +101,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -96,13 +146,14 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -110,32 +161,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -149,21 +179,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,31 +194,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,7 +209,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,13 +239,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,7 +269,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,7 +287,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,7 +323,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,67 +353,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,7 +365,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,31 +383,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,26 +400,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -439,11 +418,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,6 +438,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,17 +466,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,153 +489,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1340,6 +1339,48 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>454660</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>55880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図形 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18802350" y="10629900"/>
+          <a:ext cx="18285460" cy="9828530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -1359,7 +1400,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1872,25 +1913,7 @@
             <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>&lt;RouterView /&gt;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>の</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>内容を</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>切り替え</a:t>
+            <a:t>&lt;RouterView /&gt;の内容を切り替え</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800"/>
         </a:p>
@@ -1919,7 +1942,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2094,7 +2117,7 @@
             <a:rPr lang="en-US" altLang="ja-JP" sz="1800">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>routers</a:t>
+            <a:t>router</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
@@ -2105,6 +2128,6274 @@
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1800">
             <a:sym typeface="+mn-ea"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>307975</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>555625</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="四角形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19796125" y="13233400"/>
+          <a:ext cx="3676650" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>script</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>内では</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800">
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>router.push({ path: '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>***</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>' })</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800">
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>を使用</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1800">
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>153035</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="四角形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23469600" y="11801475"/>
+          <a:ext cx="3543300" cy="353060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>422275</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>89535</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>118745</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="四角形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24025225" y="14004925"/>
+          <a:ext cx="2410460" cy="344170"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>454660</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>55880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図形 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="514350"/>
+          <a:ext cx="18285460" cy="9828530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400685</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5391150" y="2733675"/>
+          <a:ext cx="4610735" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>60325</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>528320</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5546725" y="7927975"/>
+          <a:ext cx="1153795" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>353060</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8639175" y="2000250"/>
+          <a:ext cx="2000885" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>importで</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>vue</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>呼び出し</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>661035</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6203950" y="7308850"/>
+          <a:ext cx="2000885" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>該当箇所に設定</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>683895</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図形 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="26022300"/>
+          <a:ext cx="13714095" cy="23923625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>683895</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図形 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="990600"/>
+          <a:ext cx="13714095" cy="23923625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495935</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>27940</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6715125" y="3495675"/>
+          <a:ext cx="2696210" cy="1637665"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>181610</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9153525" y="2790825"/>
+          <a:ext cx="2000885" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>interface</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>設定</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>514985</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>29845</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6905625" y="5505450"/>
+          <a:ext cx="4582160" cy="658495"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>247015</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>78105</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="線吹き出し 2(枠付き) 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11553825" y="4914900"/>
+          <a:ext cx="3780790" cy="611505"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>状態管理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(state)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>＆</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>interface</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>で</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>初期化</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>60325</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>51435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>527685</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>51435</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6918325" y="6185535"/>
+          <a:ext cx="4582160" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>488315</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>167005</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="線吹き出し 2(枠付き) 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12471400" y="6032500"/>
+          <a:ext cx="3104515" cy="611505"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>状態管理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>(state)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>から</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>情報</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>取得</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="四角形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6943725" y="7258050"/>
+          <a:ext cx="4743450" cy="4610100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>511175</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>177165</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>27305</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="線吹き出し 2(枠付き) 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12169775" y="8636000"/>
+          <a:ext cx="3780790" cy="611505"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -16667"/>
+            <a:gd name="adj5" fmla="val 110903"/>
+            <a:gd name="adj6" fmla="val -39872"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>状態管理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>(state)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>の値を更新</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>683895</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図形 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16459200" y="1000125"/>
+          <a:ext cx="13714095" cy="23923625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>200660</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="四角形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21126450" y="4191000"/>
+          <a:ext cx="3763010" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>227965</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>78105</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="線吹き出し 2(枠付き) 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24564975" y="7143750"/>
+          <a:ext cx="3780790" cy="611505"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -16667"/>
+            <a:gd name="adj5" fmla="val 297819"/>
+            <a:gd name="adj6" fmla="val -36345"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>getters</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>及びactionsを使用可能</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>496570</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="四角形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21364575" y="5715000"/>
+          <a:ext cx="2449195" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>109220</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="四角形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21977350" y="9175750"/>
+          <a:ext cx="2820670" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線コネクタ 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22755225" y="6038850"/>
+          <a:ext cx="1162050" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>588010</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="四角形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22752050" y="12884150"/>
+          <a:ext cx="3210560" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>323215</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="線吹き出し 2(枠付き) 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24660225" y="11877675"/>
+          <a:ext cx="3780790" cy="611505"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -16667"/>
+            <a:gd name="adj5" fmla="val 140498"/>
+            <a:gd name="adj6" fmla="val -27779"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>$state</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>からの直接呼び出しも可能</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>153035</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="四角形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="36909375"/>
+          <a:ext cx="4610100" cy="581660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>231775</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>422910</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>109220</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="四角形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7775575" y="40684450"/>
+          <a:ext cx="3620135" cy="363220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>407035</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="四角形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7759700" y="41354375"/>
+          <a:ext cx="3620135" cy="363220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>131445</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="線吹き出し 2(枠付き) 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12553950" y="35937825"/>
+          <a:ext cx="4722495" cy="763905"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Store</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>から別の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Store</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>に</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>保存</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>する場合</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>メソッド内部でインスタンス化する</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>683895</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図形 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="514350"/>
+          <a:ext cx="13714095" cy="23923625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>683895</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図形 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15087600" y="514350"/>
+          <a:ext cx="13714095" cy="23923625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>438785</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5353050" y="2619375"/>
+          <a:ext cx="5372735" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>29210</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8315325" y="1895475"/>
+          <a:ext cx="2000885" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>Service</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>クラス</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>80645</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19662775" y="2336800"/>
+          <a:ext cx="4420870" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>429577</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>56832</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>574357</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28257</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="上矢印 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="14660245" y="-629920"/>
+          <a:ext cx="485775" cy="7002145"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22574250" y="1571625"/>
+          <a:ext cx="2647950" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>new </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>でインスタンス化</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="四角形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20326350" y="7143750"/>
+          <a:ext cx="2068830" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>638810</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="四角形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21755100" y="6305550"/>
+          <a:ext cx="829310" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>使用</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>683895</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図形 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="342900"/>
+          <a:ext cx="13714095" cy="23923625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>448945</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>133985</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6448425" y="12658725"/>
+          <a:ext cx="3601720" cy="334010"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>90170</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5384800" y="9175750"/>
+          <a:ext cx="4992370" cy="753110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>564515</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>365125</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="上矢印 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="21420000">
+          <a:off x="8108315" y="10026650"/>
+          <a:ext cx="486410" cy="2466340"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2402,7 +8693,7 @@
   <sheetPr/>
   <dimension ref="A2:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -2430,8 +8721,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="AB59" sqref="AB59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2453,7 +8744,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+      <selection activeCell="AH43" sqref="AH43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2461,5 +8752,63 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X25" sqref="X25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="4" ht="24" spans="4:4">
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AQ38" sqref="AQ38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="X71" sqref="X71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>